--- a/data/trans_dic/P02E$ssociales-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P02E$ssociales-Estudios-trans_dic.xlsx
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01858167842416888</v>
+        <v>0.01812740763123912</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01599539489648488</v>
+        <v>0.0157572874725739</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01628899593839531</v>
+        <v>0.01611351611142151</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002318478438314054</v>
+        <v>0.002311523095051173</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02200863773376919</v>
+        <v>0.02050819499419842</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008355075015336668</v>
+        <v>0.007032738316816885</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04859153890366234</v>
+        <v>0.04341946672337354</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08334624560916934</v>
+        <v>0.07992707863802179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09509770933622759</v>
+        <v>0.09642147477896676</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02528808975635119</v>
+        <v>0.02437123167002194</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05155638825023311</v>
+        <v>0.05139637936834662</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0317668739035949</v>
+        <v>0.03112892954807377</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02001024079976927</v>
+        <v>0.01976036911713698</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05461830715882822</v>
+        <v>0.05428195723035965</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04463390356442059</v>
+        <v>0.04140297064898125</v>
       </c>
     </row>
     <row r="7">
@@ -787,28 +787,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004699631809277231</v>
+        <v>0.004847408573663746</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004131243250555678</v>
+        <v>0.0041175907405015</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.003361107602506434</v>
+        <v>0.003272349660243558</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006886218825266937</v>
+        <v>0.006287608096909562</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0009206519557644138</v>
+        <v>0.0009183088529019991</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005119530875373114</v>
+        <v>0.005237737273887986</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.007025517478150267</v>
+        <v>0.007172572780753237</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01153728381527964</v>
+        <v>0.01299152845026997</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02159755604239378</v>
+        <v>0.02285864106232634</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02392918395307023</v>
+        <v>0.02321757053104672</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01054156360978395</v>
+        <v>0.01188342597956464</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01499925959185804</v>
+        <v>0.01494449591297613</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0269754373461176</v>
+        <v>0.02540972599262697</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.00796209892837136</v>
+        <v>0.0085952108410037</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01472672085828217</v>
+        <v>0.01492239944243728</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01948380953509941</v>
+        <v>0.02134643092034627</v>
       </c>
     </row>
     <row r="10">
@@ -921,21 +921,21 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.0321994127200536</v>
+        <v>0.0356054035922389</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.03093549027140427</v>
+        <v>0.03089240920454376</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02255978115771269</v>
+        <v>0.0243021903900471</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.01619136415038935</v>
+        <v>0.01963719938023377</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01857756120120085</v>
+        <v>0.02167507062994212</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
     </row>
@@ -989,28 +989,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01006581957041537</v>
+        <v>0.009586198381612589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006838295580907805</v>
+        <v>0.00780980321969266</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.001761268741060632</v>
+        <v>0.001899991984689383</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008026581859252769</v>
+        <v>0.007915360548296838</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.004667646423879835</v>
+        <v>0.004728189662601835</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.001755438458592013</v>
+        <v>0.001767889432909527</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009952782837934222</v>
+        <v>0.009944069697289852</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007176021730448496</v>
+        <v>0.007042362114730886</v>
       </c>
     </row>
     <row r="15">
@@ -1021,31 +1021,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01039314820472961</v>
+        <v>0.01053968890093346</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02759515451775111</v>
+        <v>0.02579702783630115</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02404485147468046</v>
+        <v>0.0252054395957944</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.009851092737194212</v>
+        <v>0.01060847905840618</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02013321940018996</v>
+        <v>0.01975548935035923</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0166891262728694</v>
+        <v>0.01707994619625266</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.007870836259469298</v>
+        <v>0.008140777059497591</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01931740076286145</v>
+        <v>0.01983398140287611</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0172668275271574</v>
+        <v>0.01759696723488708</v>
       </c>
     </row>
     <row r="16">
@@ -1276,28 +1276,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3364</v>
+        <v>3282</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2040</v>
+        <v>2010</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6323</v>
+        <v>6255</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>12528</v>
+        <v>11674</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2719</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="7">
@@ -1308,31 +1308,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5504</v>
+        <v>4919</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15091</v>
+        <v>14472</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12130</v>
+        <v>12299</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6856</v>
+        <v>6608</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20014</v>
+        <v>19952</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6288</v>
+        <v>6161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7692</v>
+        <v>7596</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>31091</v>
+        <v>30900</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14528</v>
+        <v>13476</v>
       </c>
     </row>
     <row r="8">
@@ -1420,28 +1420,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2937</v>
+        <v>3030</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3041</v>
+        <v>2961</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4803</v>
+        <v>4385</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7832</v>
+        <v>8013</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8273</v>
+        <v>8446</v>
       </c>
     </row>
     <row r="11">
@@ -1452,31 +1452,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4461</v>
+        <v>5024</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13499</v>
+        <v>14287</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11488</v>
+        <v>11147</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5991</v>
+        <v>6754</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13572</v>
+        <v>13522</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18814</v>
+        <v>17722</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7604</v>
+        <v>8209</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22530</v>
+        <v>22829</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>22943</v>
+        <v>25136</v>
       </c>
     </row>
     <row r="12">
@@ -1589,21 +1589,21 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>5700</v>
+        <v>6303</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>5146</v>
+        <v>5139</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5050</v>
+        <v>5440</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4737</v>
+        <v>5745</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7448</v>
+        <v>8689</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
     </row>
@@ -1692,28 +1692,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9896</v>
+        <v>9424</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5144</v>
+        <v>5874</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1772</v>
+        <v>1911</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12175</v>
+        <v>12007</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5176</v>
+        <v>5243</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2865</v>
+        <v>2885</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>24882</v>
+        <v>24860</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13355</v>
+        <v>13107</v>
       </c>
     </row>
     <row r="19">
@@ -1724,31 +1724,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6508</v>
+        <v>6600</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27129</v>
+        <v>25362</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18086</v>
+        <v>18959</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9908</v>
+        <v>10670</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30540</v>
+        <v>29967</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>18507</v>
+        <v>18941</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12845</v>
+        <v>13286</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>48294</v>
+        <v>49585</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32135</v>
+        <v>32750</v>
       </c>
     </row>
     <row r="20">
